--- a/BurnDownChartSprint/BurnDownChartSprint4.xlsx
+++ b/BurnDownChartSprint/BurnDownChartSprint4.xlsx
@@ -59,9 +59,6 @@
     <t>http://xaviesteve.com/go/agilespreadsheet</t>
   </si>
   <si>
-    <t>Task Coordinatoor Feautures</t>
-  </si>
-  <si>
     <t>Manager can view all the information of system</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Review / Check the functionality of system</t>
+  </si>
+  <si>
+    <t>Task Manager Feautures</t>
   </si>
 </sst>
 </file>
@@ -991,11 +991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143659120"/>
-        <c:axId val="2143633440"/>
+        <c:axId val="2135640304"/>
+        <c:axId val="2135646912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143659120"/>
+        <c:axId val="2135640304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,7 +1034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143633440"/>
+        <c:crossAx val="2135646912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1042,7 +1042,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143633440"/>
+        <c:axId val="2135646912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143659120"/>
+        <c:crossAx val="2135640304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1408,11 +1408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="BO13" sqref="BO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1429,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:65" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="3" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="4" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="14">
         <v>8</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="5" spans="1:65" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="14">
         <v>2</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="6" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="7" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14">
         <v>2</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="8" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="14">
         <v>2</v>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" ref="D3:D34" si="0">IF(C8&gt;B8,$C8-(SUM($E8:$BM8)),$B8-(SUM($E8:$BM8)))</f>
+        <f t="shared" ref="D8:D33" si="0">IF(C8&gt;B8,$C8-(SUM($E8:$BM8)),$B8-(SUM($E8:$BM8)))</f>
         <v>0</v>
       </c>
       <c r="E8" s="15"/>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="9" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="10" spans="1:65" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14">
         <v>10</v>
@@ -2006,7 +2006,7 @@
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="7">
-        <f t="shared" ref="C8:C34" si="1">IF(B20&lt;SUM(E20:BL20),SUM(E20:BL20),B20)</f>
+        <f t="shared" ref="C20:C33" si="1">IF(B20&lt;SUM(E20:BL20),SUM(E20:BL20),B20)</f>
         <v>0</v>
       </c>
       <c r="D20" s="8">
